--- a/tests/databooks/databook_usdt.xlsx
+++ b/tests/databooks/databook_usdt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{43D59E39-4939-074B-9D61-9884D0ACC6BE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{27967026-7CD9-154D-8C22-C6E0E917A3CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16200" windowHeight="13660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ _k_r_._-;\-* #,##0\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +89,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -130,10 +141,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -144,8 +156,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
@@ -622,7 +638,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -631,6 +647,7 @@
     <col min="2" max="2" width="8.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -706,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>1000000</v>
       </c>
       <c r="G5" s="2"/>
